--- a/TSVPiS.xlsx
+++ b/TSVPiS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -133,7 +133,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +142,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66FF66"/>
-        <bgColor rgb="FF99CC00"/>
+        <fgColor rgb="FF66FF99"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -155,6 +155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -200,7 +206,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -225,11 +231,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -287,13 +297,13 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFF66"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF66FF66"/>
+      <rgbColor rgb="FF66FF99"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -321,13 +331,13 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.8461538461539"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.2753036437247"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -520,7 +530,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+      <c r="A13" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -537,7 +547,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="3" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -552,7 +562,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="3" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -569,7 +579,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="6" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -586,7 +596,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+      <c r="A17" s="7" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -602,8 +612,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -619,8 +629,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -637,22 +647,22 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
